--- a/upload/user/example.xlsx
+++ b/upload/user/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>必填</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,18 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請填"是"或保留空白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棟別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>樓層</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李大仁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +109,6 @@
   </si>
   <si>
     <t>李小花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,11 +180,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AB90001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB90001</t>
+    <t>棟別或門牌號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填
+只能填英數字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填
+只能填數字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住戶人數編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +353,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,17 +661,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="5" customWidth="1"/>
+    <col min="2" max="3" width="12.5" style="5" customWidth="1"/>
     <col min="4" max="5" width="9" style="5"/>
     <col min="6" max="6" width="17.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.375" style="4" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="37.125" style="6" customWidth="1"/>
@@ -667,14 +683,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
+      <c r="A1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
@@ -692,10 +708,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>3</v>
@@ -704,247 +720,247 @@
         <v>3</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3">
+        <v>47</v>
+      </c>
+      <c r="C3" s="15">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
+      <c r="C6" s="15">
+        <v>4</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="4"/>
@@ -954,7 +970,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G4 F3:F6 C7:C8 F7:F8 G7:G8 A4:A6 A3 A7:A8" numberStoredAsText="1"/>
+    <ignoredError sqref="G3:G4 F3:F6 B7:B8 F7:F8 G7:G8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/upload/user/example.xlsx
+++ b/upload/user/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>必填</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>棟別或門牌號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必填
 只能填英數字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,19 +198,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB9001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棟別
+（或門牌號）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車位所在棟別
+（或車位所在門牌號）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車位所在樓層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ａ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請填"車位所在棟別"
+或保留空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請填"車位所在樓層"
+或保留空白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +387,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
@@ -677,20 +711,22 @@
     <col min="10" max="10" width="37.125" style="6" customWidth="1"/>
     <col min="11" max="11" width="17" style="6" customWidth="1"/>
     <col min="12" max="12" width="15.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="6"/>
+    <col min="13" max="13" width="23.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="66.75" customHeight="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
@@ -720,21 +756,27 @@
         <v>3</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -763,19 +805,25 @@
       <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1">
+    <row r="3" spans="1:16" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="15">
         <v>1</v>
@@ -808,15 +856,21 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="25.5" customHeight="1">
+    <row r="4" spans="1:16" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -844,11 +898,13 @@
         <v>17</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="25.5" customHeight="1">
+    <row r="5" spans="1:16" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -868,9 +924,9 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="25.5" customHeight="1">
+    <row r="6" spans="1:16" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -889,9 +945,9 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="25.5" customHeight="1">
+    <row r="7" spans="1:16" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -927,15 +983,21 @@
         <v>17</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="25.5" customHeight="1">
+    <row r="8" spans="1:16" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -963,14 +1025,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G4 F3:F6 B7:B8 F7:F8 G7:G8" numberStoredAsText="1"/>
+    <ignoredError sqref="G3:G4 F3:F6 B7:B8 F7:F8 G7:G8 O3 O7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/upload/user/example.xlsx
+++ b/upload/user/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>必填</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,23 +216,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ａ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ｂ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -243,6 +231,18 @@
   <si>
     <t>請填"車位所在樓層"
 或保留空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1238-EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +696,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
@@ -756,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>33</v>
@@ -856,13 +856,13 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>32</v>
@@ -923,6 +923,18 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
+      <c r="M5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -983,13 +995,13 @@
         <v>17</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>30</v>
@@ -1034,7 +1046,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G4 F3:F6 B7:B8 F7:F8 G7:G8 O3 O7" numberStoredAsText="1"/>
+    <ignoredError sqref="G3:G4 F3:F6 B7:B8 F7:F8 G7:G8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/upload/user/example.xlsx
+++ b/upload/user/example.xlsx
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
@@ -1046,7 +1046,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G4 F3:F6 B7:B8 F7:F8 G7:G8" numberStoredAsText="1"/>
+    <ignoredError sqref="G3:G4 F3:F6 B7:B8 F7:F8 G7:G8 O3:O7 B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
